--- a/Carpeta de Estudio/E04/Repo2/Patrones de diseño.xlsx
+++ b/Carpeta de Estudio/E04/Repo2/Patrones de diseño.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\E04\Repo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603140C-3DFD-48D8-A043-E20F807CF793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D88C9-BF1A-430E-AA6C-88FAD6EA0F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Patrones utilizados</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>nuevo.js</t>
-  </si>
-  <si>
-    <t>Modularidad (Modular Pattern)</t>
-  </si>
-  <si>
-    <t>Variables SCSS (Design Tokens)</t>
   </si>
 </sst>
 </file>
@@ -497,7 +491,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,12 +517,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="2"/>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
@@ -540,12 +530,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="3"/>
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
